--- a/pred_ohlcv/54_21/2019-11-20 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 STRAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-12374.7583</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-12374.7583</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-13053.9892</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-13402.9892</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-13401.5692</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-13401.5692</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-13401.5692</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-7079.3674</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-7079.3674</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-12847.7537</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-12365.5026</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-12364.0926</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-12388.6006</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-12388.6006</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-12361.0006</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-13078.4417</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-13076.8417</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-13076.8417</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-11830.8417</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-11830.8417</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-11830.8417</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-11718.8417</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-10283.8907</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-10283.8907</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-10490.8906</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-10490.8906</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-10490.8906</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-10850.9906</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-10010.5656</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-10010.5656</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-10010.5656</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-10010.5656</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-10010.5656</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-10010.5656</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-10010.5656</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-19855.33226264</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-19855.33226264</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-24168.87326264001</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-24169.83636264001</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-24222.08776264001</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-24235.15056264001</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-24235.15056264001</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-24200.39276264001</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-25007.71816264001</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-24910.84216264001</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-24910.84216264001</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-24910.84216264001</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-21333.09196264001</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-24490.81266264001</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-29029.90336264001</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-29029.90336264001</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-28925.39736264001</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-32785.18676264001</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-28697.47756264001</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-28897.47756264001</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-24288.49756264001</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-24288.49756264001</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-24282.49756264001</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-23994.48676264001</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-23994.48676264001</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-20266.67286264001</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-20266.67286264001</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-20266.67286264001</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-20266.67286264001</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>588.5604373599917</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>588.5604373599917</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>3581.120437359992</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>8309.501037359991</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-377.5165626400094</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-11801.51226264001</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-11801.51226264001</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-11801.51226264001</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-9470.21136264001</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-13463.03116264001</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-13463.03116264001</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-13463.03116264001</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-21959.84306264001</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-22647.37766264001</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-22615.76466264001</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-23854.05826264001</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-22469.55376264001</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-23007.89606264001</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-23006.49606264001</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-23564.74606264001</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-23564.74606264001</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-24594.25496264001</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-24472.90386264001</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-20 STRAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-20 STRAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-12374.7583</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-12374.7583</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-13053.9892</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-13402.9892</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-13401.5692</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-13401.5692</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-13401.5692</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-7079.3674</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-7079.3674</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-12847.7537</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-12365.5026</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-12364.0926</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-12388.6006</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-12388.6006</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-12361.0006</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-13078.4417</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-13076.8417</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-24235.15056264001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-24235.15056264001</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-24200.39276264001</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-25007.71816264001</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-24910.84216264001</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-24910.84216264001</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-24910.84216264001</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-21333.09196264001</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-24490.81266264001</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-29029.90336264001</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-29029.90336264001</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-28925.39736264001</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-28854.39736264001</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-32785.18676264001</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-28697.47756264001</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-28897.47756264001</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-24288.49756264001</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-24288.49756264001</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-24282.49756264001</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-24530.30066264001</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-20266.67286264001</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-20266.67286264001</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-20266.67286264001</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-20266.67286264001</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-13883.43046264001</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>588.5604373599917</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>588.5604373599917</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>3581.120437359992</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>8309.501037359991</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-4181.214762640009</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-483.4925626400095</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-11801.51226264001</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-11801.51226264001</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-11801.51226264001</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-13463.03116264001</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-13463.03116264001</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-13463.03116264001</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-13463.03116264001</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-21959.84306264001</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-22647.37766264001</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-22615.76466264001</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-23854.05826264001</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-22927.57476264001</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-22449.64656264001</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-22469.55376264001</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-22501.02636264002</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-23007.89606264001</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-23007.89606264001</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-23006.49606264001</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-23564.74606264001</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-23564.74606264001</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-24594.25496264001</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-24472.90386264001</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
